--- a/01_Linear/Quiz_Network_01_key.xlsx
+++ b/01_Linear/Quiz_Network_01_key.xlsx
@@ -8,50 +8,83 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850F58AF-D532-C345-8E31-E58E63109892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35251689-2579-A440-A2FE-C0FCC2CF72BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="540" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{68FE8602-DD5A-D848-9B19-1A11977F4B0B}"/>
+    <workbookView xWindow="400" yWindow="540" windowWidth="32160" windowHeight="17960" activeTab="3" xr2:uid="{68FE8602-DD5A-D848-9B19-1A11977F4B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Author" sheetId="3" r:id="rId1"/>
     <sheet name="Problem" sheetId="1" r:id="rId2"/>
-    <sheet name="Base" sheetId="2" r:id="rId3"/>
+    <sheet name="Base_A" sheetId="2" r:id="rId3"/>
+    <sheet name="Base_B" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Base!$B$8:$C$9</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Base_A!$B$8:$C$9</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Base_B!$B$8:$C$9</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Base!$B$10:$C$10</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Base!$D$8:$D$9</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Base_A!$B$10:$C$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Base_B!$B$10:$C$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Base_A!$D$8:$D$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Base_B!$D$8:$D$9</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Base!$D$4</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Base_A!$D$4</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Base_B!$D$4</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Base!$B$12:$C$12</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">Base!$F$8:$F$9</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Base_A!$B$12:$C$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Base_B!$B$12:$C$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">Base_A!$F$8:$F$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Base_B!$F$8:$F$9</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t xml:space="preserve">Use Solver to minimize shipping costs.  Route costs are as follows: </t>
   </si>
@@ -112,6 +145,30 @@
   </si>
   <si>
     <t>Quiz_Network_01</t>
+  </si>
+  <si>
+    <t>Warehouse1 has 30 units, Warehouse 2 has 40 units.</t>
+  </si>
+  <si>
+    <t>Dallas needs 15 and Houston needs 55.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Solver in worksheet "Base" to minimize shipping costs.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Route costs are as follows: </t>
+  </si>
+  <si>
+    <t>Warehouse1 - Dallas  $9</t>
+  </si>
+  <si>
+    <t>Warehouse1 - Houston $7</t>
+  </si>
+  <si>
+    <t>Warehouse2 - Dallas  $5</t>
+  </si>
+  <si>
+    <t>Warehouse3 - Houston $3</t>
   </si>
 </sst>
 </file>
@@ -944,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9F9851-E5E1-5749-AF8C-8945E626ED77}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" workbookViewId="0"/>
+    <sheetView zoomScale="194" zoomScaleNormal="194" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -1143,4 +1200,198 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE93E39-B485-774A-8983-454C06AD4E74}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="2.5" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="7" max="7" width="2.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10">
+        <f>SUMPRODUCT(B4:C5,B8:C9)</f>
+        <v>360</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <f>SUM(B8:C8)</f>
+        <v>30</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="8">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5">
+        <f>SUM(B9:C9)</f>
+        <v>40</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="8">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <f>SUM(B8:B9)</f>
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <f>SUM(C8:C9)</f>
+        <v>55</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8">
+        <v>55</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>